--- a/tests/fixtures/orderforms/2184.1.sarscov2.xlsx
+++ b/tests/fixtures/orderforms/2184.1.sarscov2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrikgrenfeldt/Documents/src/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05FBE04-0401-A845-B815-08749EFE538C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE3F4E8-4D8B-2449-9862-E3DA148F4A31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21600" yWindow="2700" windowWidth="27280" windowHeight="23940" tabRatio="593" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1120" windowWidth="36840" windowHeight="16520" tabRatio="593" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="537">
   <si>
     <t>&lt;TABLE HEADER&gt;</t>
   </si>
@@ -1540,9 +1540,6 @@
     <t>cust200</t>
   </si>
   <si>
-    <t>MicroSALT</t>
-  </si>
-  <si>
     <t>No analysis</t>
   </si>
   <si>
@@ -1727,33 +1724,6 @@
   </si>
   <si>
     <t>Selection criteria</t>
-  </si>
-  <si>
-    <t>SARS CoV-2</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Reference genome: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Use accession no. From NCBI.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Example NC_045512 for SARS CoV-2</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1767,21 +1737,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">Analysis of sequencing data. Options available in drop down list.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Delivery: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Delivery options. Options available in drop down list. For MicroSALT analysis only a QC-report and fastq-files will be delivered for SARS CoV-2 samples.
 </t>
     </r>
   </si>
@@ -1907,9 +1862,6 @@
     </r>
   </si>
   <si>
-    <t>This orderform is only for orders of Sars Cov-2 samples. New columns added are Pre-processing method, Region code, Lab code and Selection criteria.</t>
-  </si>
-  <si>
     <t>UDF/Pre Processing Method</t>
   </si>
   <si>
@@ -1945,178 +1897,223 @@
     </r>
   </si>
   <si>
-    <t>2184:1 Orderform SARS-CoV-2</t>
+    <t>SARS-CoV-2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reference genome: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Use accession no. From NCBI.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Example NC_045512 for SARS-CoV-2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Delivery: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Delivery options. Options available in drop down list. For MicroSALT analysis only a QC-report and fastq-files will be delivered for SARS-CoV-2 samples.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>This orderform is only for orders of SARS-CoV-2 samples. New columns added are Pre-processing method, Region code, Lab code and Selection criteria.</t>
+  </si>
+  <si>
+    <t>sarscov2sample1</t>
   </si>
   <si>
     <t>NC_000001</t>
   </si>
   <si>
+    <t>plate1</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>sarscov2sample2</t>
+  </si>
+  <si>
     <t>NC_000002</t>
   </si>
   <si>
-    <t>plate1</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>comment</t>
+    <t>sarscov2sample3</t>
   </si>
   <si>
     <t>NC_000003</t>
   </si>
   <si>
+    <t>sarscov2sample4</t>
+  </si>
+  <si>
     <t>NC_000004</t>
   </si>
   <si>
+    <t>sarscov2sample5</t>
+  </si>
+  <si>
     <t>NC_000005</t>
   </si>
   <si>
+    <t>sarscov2sample6</t>
+  </si>
+  <si>
     <t>NC_000006</t>
   </si>
   <si>
+    <t>sarscov2sample7</t>
+  </si>
+  <si>
     <t>NC_000007</t>
   </si>
   <si>
+    <t>sarscov2sample8</t>
+  </si>
+  <si>
     <t>NC_000008</t>
   </si>
   <si>
+    <t>sarscov2sample9</t>
+  </si>
+  <si>
     <t>NC_000009</t>
   </si>
   <si>
+    <t>sarscov2sample10</t>
+  </si>
+  <si>
     <t>NC_000010</t>
   </si>
   <si>
+    <t>sarscov2sample11</t>
+  </si>
+  <si>
     <t>NC_000011</t>
   </si>
   <si>
+    <t>sarscov2sample12</t>
+  </si>
+  <si>
     <t>NC_000012</t>
   </si>
   <si>
+    <t>sarscov2sample13</t>
+  </si>
+  <si>
     <t>NC_000013</t>
   </si>
   <si>
+    <t>sarscov2sample14</t>
+  </si>
+  <si>
     <t>NC_000014</t>
   </si>
   <si>
+    <t>sarscov2sample15</t>
+  </si>
+  <si>
     <t>NC_000015</t>
   </si>
   <si>
+    <t>sarscov2sample16</t>
+  </si>
+  <si>
     <t>NC_000016</t>
   </si>
   <si>
+    <t>sarscov2sample17</t>
+  </si>
+  <si>
     <t>NC_000017</t>
   </si>
   <si>
+    <t>sarscov2sample18</t>
+  </si>
+  <si>
     <t>NC_000018</t>
   </si>
   <si>
+    <t>sarscov2sample19</t>
+  </si>
+  <si>
     <t>NC_000019</t>
   </si>
   <si>
+    <t>sarscov2sample20</t>
+  </si>
+  <si>
     <t>NC_000020</t>
   </si>
   <si>
+    <t>sarscov2sample21</t>
+  </si>
+  <si>
     <t>NC_000021</t>
   </si>
   <si>
+    <t>sarscov2sample22</t>
+  </si>
+  <si>
     <t>NC_000022</t>
   </si>
   <si>
+    <t>sarscov2sample23</t>
+  </si>
+  <si>
     <t>NC_000023</t>
   </si>
   <si>
+    <t>sarscov2sample24</t>
+  </si>
+  <si>
     <t>NC_000024</t>
   </si>
   <si>
+    <t>sarscov2sample25</t>
+  </si>
+  <si>
     <t>NC_000025</t>
   </si>
   <si>
+    <t>sarscov2sample26</t>
+  </si>
+  <si>
     <t>NC_000026</t>
   </si>
   <si>
+    <t>sarscov2sample27</t>
+  </si>
+  <si>
     <t>NC_000027</t>
   </si>
   <si>
-    <t>sarscov2sample1</t>
-  </si>
-  <si>
-    <t>sarscov2sample2</t>
-  </si>
-  <si>
-    <t>sarscov2sample3</t>
-  </si>
-  <si>
-    <t>sarscov2sample4</t>
-  </si>
-  <si>
-    <t>sarscov2sample5</t>
-  </si>
-  <si>
-    <t>sarscov2sample6</t>
-  </si>
-  <si>
-    <t>sarscov2sample7</t>
-  </si>
-  <si>
-    <t>sarscov2sample8</t>
-  </si>
-  <si>
-    <t>sarscov2sample9</t>
-  </si>
-  <si>
-    <t>sarscov2sample10</t>
-  </si>
-  <si>
-    <t>sarscov2sample11</t>
-  </si>
-  <si>
-    <t>sarscov2sample12</t>
-  </si>
-  <si>
-    <t>sarscov2sample13</t>
-  </si>
-  <si>
-    <t>sarscov2sample14</t>
-  </si>
-  <si>
-    <t>sarscov2sample15</t>
-  </si>
-  <si>
-    <t>sarscov2sample16</t>
-  </si>
-  <si>
-    <t>sarscov2sample17</t>
-  </si>
-  <si>
-    <t>sarscov2sample18</t>
-  </si>
-  <si>
-    <t>sarscov2sample19</t>
-  </si>
-  <si>
-    <t>sarscov2sample20</t>
-  </si>
-  <si>
-    <t>sarscov2sample21</t>
-  </si>
-  <si>
-    <t>sarscov2sample22</t>
-  </si>
-  <si>
-    <t>sarscov2sample23</t>
-  </si>
-  <si>
-    <t>sarscov2sample24</t>
-  </si>
-  <si>
-    <t>sarscov2sample25</t>
-  </si>
-  <si>
-    <t>sarscov2sample26</t>
-  </si>
-  <si>
-    <t>sarscov2sample27</t>
+    <t>2184:1 Orderform</t>
   </si>
 </sst>
 </file>
@@ -2126,7 +2123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="54" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2452,12 +2449,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
@@ -3033,7 +3024,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3428,7 +3419,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="43" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3446,6 +3436,25 @@
     </xf>
     <xf numFmtId="0" fontId="43" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="46" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="45" fillId="5" borderId="0" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="297">
@@ -3893,7 +3902,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>55034</xdr:rowOff>
+      <xdr:rowOff>55035</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4235,7 +4244,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -4279,7 +4288,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -4320,7 +4329,7 @@
         <v>22</v>
       </c>
       <c r="C1" s="97" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
       <c r="D1" s="98"/>
       <c r="E1" s="35"/>
@@ -4367,12 +4376,12 @@
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="112" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A16" s="118" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.15">
@@ -4423,17 +4432,17 @@
     </row>
     <row r="29" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="147" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="109" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="42" x14ac:dyDescent="0.15">
       <c r="A31" s="109" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="28" x14ac:dyDescent="0.15">
@@ -4448,7 +4457,7 @@
     </row>
     <row r="34" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A34" s="108" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -4465,35 +4474,35 @@
     </row>
     <row r="37" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="117" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C37" s="106"/>
       <c r="E37" s="106"/>
     </row>
     <row r="38" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="117" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="C38" s="106"/>
       <c r="E38" s="106"/>
     </row>
     <row r="39" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="117" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C39" s="106"/>
       <c r="E39" s="106"/>
     </row>
     <row r="40" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="117" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C40" s="106"/>
       <c r="E40" s="106"/>
     </row>
     <row r="41" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="117" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C41" s="106"/>
       <c r="E41" s="106"/>
@@ -4650,8 +4659,8 @@
   </sheetPr>
   <dimension ref="A1:AA181"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4683,12 +4692,12 @@
     <col min="28" max="16384" width="13.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="14" x14ac:dyDescent="0.2">
       <c r="A1" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="148" t="s">
-        <v>480</v>
+      <c r="B1" s="97" t="s">
+        <v>536</v>
       </c>
       <c r="C1" s="85"/>
       <c r="D1" s="30"/>
@@ -5120,39 +5129,39 @@
       <c r="AA14" s="55"/>
     </row>
     <row r="15" spans="1:27" s="7" customFormat="1" ht="24" x14ac:dyDescent="0.15">
-      <c r="A15" s="150" t="s">
+      <c r="A15" s="149" t="s">
         <v>347</v>
       </c>
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="151"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="151"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="151"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="151"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="151"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="150"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="150"/>
+      <c r="J15" s="150"/>
+      <c r="K15" s="150"/>
+      <c r="L15" s="150"/>
+      <c r="M15" s="150"/>
+      <c r="N15" s="150"/>
+      <c r="O15" s="150"/>
+      <c r="P15" s="150"/>
       <c r="Q15" s="69"/>
-      <c r="R15" s="155" t="s">
+      <c r="R15" s="154" t="s">
         <v>96</v>
       </c>
-      <c r="S15" s="155"/>
+      <c r="S15" s="154"/>
       <c r="T15" s="115"/>
       <c r="U15" s="122" t="s">
         <v>279</v>
       </c>
       <c r="V15" s="115"/>
-      <c r="W15" s="152" t="s">
+      <c r="W15" s="151" t="s">
         <v>255</v>
       </c>
-      <c r="X15" s="153"/>
-      <c r="Y15" s="154"/>
+      <c r="X15" s="152"/>
+      <c r="Y15" s="153"/>
       <c r="Z15" s="21"/>
       <c r="AA15" s="21"/>
     </row>
@@ -5219,16 +5228,16 @@
         <v>11</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="M17" s="18" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="O17" s="18" t="s">
         <v>346</v>
@@ -5325,16 +5334,16 @@
         <v>250</v>
       </c>
       <c r="K19" s="121" t="s">
+        <v>401</v>
+      </c>
+      <c r="L19" s="121" t="s">
         <v>402</v>
       </c>
-      <c r="L19" s="121" t="s">
+      <c r="M19" s="121" t="s">
         <v>403</v>
       </c>
-      <c r="M19" s="121" t="s">
-        <v>404</v>
-      </c>
       <c r="N19" s="121" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="O19" s="121" t="s">
         <v>345</v>
@@ -5401,16 +5410,16 @@
     </row>
     <row r="21" spans="1:27" s="84" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="123" t="s">
-        <v>511</v>
+        <v>479</v>
       </c>
       <c r="B21" s="124" t="s">
         <v>274</v>
       </c>
       <c r="C21" s="124" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D21" s="125" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="E21" s="125" t="s">
         <v>19</v>
@@ -5434,13 +5443,13 @@
         <v>333</v>
       </c>
       <c r="L21" s="144" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M21" s="144" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N21" s="144" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O21" s="124">
         <v>1</v>
@@ -5448,18 +5457,18 @@
       <c r="P21" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="Q21" s="128"/>
+      <c r="Q21" s="155"/>
       <c r="R21" s="129" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="S21" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="T21" s="131"/>
+      <c r="T21" s="156"/>
       <c r="U21" s="132" t="s">
-        <v>484</v>
-      </c>
-      <c r="V21" s="133"/>
+        <v>482</v>
+      </c>
+      <c r="V21" s="157"/>
       <c r="W21" s="129">
         <v>2</v>
       </c>
@@ -5467,7 +5476,7 @@
         <v>3</v>
       </c>
       <c r="Y21" s="132" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="Z21" s="83"/>
       <c r="AA21" s="28" t="s">
@@ -5476,16 +5485,16 @@
     </row>
     <row r="22" spans="1:27" s="84" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="123" t="s">
-        <v>512</v>
+        <v>484</v>
       </c>
       <c r="B22" s="124" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C22" s="124" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="D22" s="125" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="E22" s="125" t="s">
         <v>19</v>
@@ -5503,19 +5512,19 @@
         <v>278</v>
       </c>
       <c r="J22" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="K22" s="124" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="L22" s="144" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M22" s="144" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N22" s="144" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O22" s="124">
         <v>1</v>
@@ -5523,12 +5532,12 @@
       <c r="P22" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="Q22" s="128"/>
+      <c r="Q22" s="155"/>
       <c r="R22" s="134"/>
       <c r="S22" s="135"/>
-      <c r="T22" s="131"/>
+      <c r="T22" s="156"/>
       <c r="U22" s="132"/>
-      <c r="V22" s="133"/>
+      <c r="V22" s="157"/>
       <c r="W22" s="129"/>
       <c r="X22" s="129"/>
       <c r="Y22" s="132"/>
@@ -5539,16 +5548,16 @@
     </row>
     <row r="23" spans="1:27" s="84" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="123" t="s">
-        <v>513</v>
+        <v>486</v>
       </c>
       <c r="B23" s="124" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C23" s="124" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D23" s="125" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="E23" s="125" t="s">
         <v>19</v>
@@ -5569,16 +5578,16 @@
         <v>247</v>
       </c>
       <c r="K23" s="124" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L23" s="144" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M23" s="144" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N23" s="144" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O23" s="124">
         <v>1</v>
@@ -5586,12 +5595,12 @@
       <c r="P23" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="Q23" s="128"/>
+      <c r="Q23" s="155"/>
       <c r="R23" s="134"/>
       <c r="S23" s="136"/>
-      <c r="T23" s="137"/>
+      <c r="T23" s="158"/>
       <c r="U23" s="132"/>
-      <c r="V23" s="133"/>
+      <c r="V23" s="157"/>
       <c r="W23" s="129"/>
       <c r="X23" s="129"/>
       <c r="Y23" s="132"/>
@@ -5602,16 +5611,16 @@
     </row>
     <row r="24" spans="1:27" s="84" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="123" t="s">
-        <v>514</v>
+        <v>488</v>
       </c>
       <c r="B24" s="124" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C24" s="124" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D24" s="125" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="E24" s="125" t="s">
         <v>19</v>
@@ -5632,16 +5641,16 @@
         <v>248</v>
       </c>
       <c r="K24" s="124" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L24" s="144" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M24" s="144" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N24" s="144" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="O24" s="124">
         <v>1</v>
@@ -5649,12 +5658,12 @@
       <c r="P24" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="Q24" s="128"/>
+      <c r="Q24" s="155"/>
       <c r="R24" s="134"/>
       <c r="S24" s="135"/>
-      <c r="T24" s="131"/>
+      <c r="T24" s="156"/>
       <c r="U24" s="132"/>
-      <c r="V24" s="133"/>
+      <c r="V24" s="157"/>
       <c r="W24" s="129"/>
       <c r="X24" s="129"/>
       <c r="Y24" s="132"/>
@@ -5665,16 +5674,16 @@
     </row>
     <row r="25" spans="1:27" s="84" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="123" t="s">
-        <v>515</v>
+        <v>490</v>
       </c>
       <c r="B25" s="124" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C25" s="124" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="D25" s="125" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="E25" s="125" t="s">
         <v>19</v>
@@ -5695,16 +5704,16 @@
         <v>249</v>
       </c>
       <c r="K25" s="124" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L25" s="144" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M25" s="144" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N25" s="144" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O25" s="124">
         <v>1</v>
@@ -5712,12 +5721,12 @@
       <c r="P25" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="Q25" s="128"/>
+      <c r="Q25" s="155"/>
       <c r="R25" s="134"/>
       <c r="S25" s="135"/>
-      <c r="T25" s="131"/>
+      <c r="T25" s="156"/>
       <c r="U25" s="132"/>
-      <c r="V25" s="133"/>
+      <c r="V25" s="157"/>
       <c r="W25" s="129"/>
       <c r="X25" s="129"/>
       <c r="Y25" s="132"/>
@@ -5728,16 +5737,16 @@
     </row>
     <row r="26" spans="1:27" s="84" customFormat="1" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="123" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="B26" s="124" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C26" s="124" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D26" s="125" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="E26" s="125" t="s">
         <v>19</v>
@@ -5758,16 +5767,16 @@
         <v>249</v>
       </c>
       <c r="K26" s="124" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L26" s="144" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M26" s="144" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N26" s="144" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O26" s="124">
         <v>1</v>
@@ -5775,12 +5784,12 @@
       <c r="P26" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="Q26" s="138"/>
+      <c r="Q26" s="159"/>
       <c r="R26" s="139"/>
       <c r="S26" s="136"/>
-      <c r="T26" s="137"/>
+      <c r="T26" s="158"/>
       <c r="U26" s="140"/>
-      <c r="V26" s="133"/>
+      <c r="V26" s="157"/>
       <c r="W26" s="141"/>
       <c r="X26" s="141"/>
       <c r="Y26" s="142"/>
@@ -5791,16 +5800,16 @@
     </row>
     <row r="27" spans="1:27" s="84" customFormat="1" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="123" t="s">
-        <v>517</v>
+        <v>494</v>
       </c>
       <c r="B27" s="124" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C27" s="124" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="D27" s="125" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="E27" s="125" t="s">
         <v>19</v>
@@ -5821,16 +5830,16 @@
         <v>249</v>
       </c>
       <c r="K27" s="124" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L27" s="144" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M27" s="144" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N27" s="144" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O27" s="124">
         <v>1</v>
@@ -5838,12 +5847,12 @@
       <c r="P27" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="Q27" s="138"/>
+      <c r="Q27" s="159"/>
       <c r="R27" s="139"/>
       <c r="S27" s="135"/>
-      <c r="T27" s="131"/>
+      <c r="T27" s="156"/>
       <c r="U27" s="140"/>
-      <c r="V27" s="133"/>
+      <c r="V27" s="157"/>
       <c r="W27" s="141"/>
       <c r="X27" s="141"/>
       <c r="Y27" s="142"/>
@@ -5854,16 +5863,16 @@
     </row>
     <row r="28" spans="1:27" ht="11" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="123" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="B28" s="124" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C28" s="124" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="D28" s="125" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="E28" s="125" t="s">
         <v>19</v>
@@ -5884,16 +5893,16 @@
         <v>249</v>
       </c>
       <c r="K28" s="124" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L28" s="144" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M28" s="144" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N28" s="144" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O28" s="124">
         <v>1</v>
@@ -5901,12 +5910,12 @@
       <c r="P28" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="Q28" s="128"/>
+      <c r="Q28" s="155"/>
       <c r="R28" s="129"/>
       <c r="S28" s="143"/>
-      <c r="T28" s="137"/>
+      <c r="T28" s="158"/>
       <c r="U28" s="132"/>
-      <c r="V28" s="133"/>
+      <c r="V28" s="157"/>
       <c r="W28" s="129"/>
       <c r="X28" s="129"/>
       <c r="Y28" s="132"/>
@@ -5917,16 +5926,16 @@
     </row>
     <row r="29" spans="1:27" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="123" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="B29" s="124" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C29" s="124" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="D29" s="125" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="E29" s="125" t="s">
         <v>19</v>
@@ -5947,16 +5956,16 @@
         <v>249</v>
       </c>
       <c r="K29" s="124" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L29" s="144" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M29" s="144" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N29" s="144" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O29" s="124">
         <v>1</v>
@@ -5964,12 +5973,12 @@
       <c r="P29" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="Q29" s="128"/>
+      <c r="Q29" s="155"/>
       <c r="R29" s="134"/>
       <c r="S29" s="135"/>
-      <c r="T29" s="131"/>
+      <c r="T29" s="156"/>
       <c r="U29" s="132"/>
-      <c r="V29" s="133"/>
+      <c r="V29" s="157"/>
       <c r="W29" s="129"/>
       <c r="X29" s="129"/>
       <c r="Y29" s="132"/>
@@ -5980,16 +5989,16 @@
     </row>
     <row r="30" spans="1:27" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="123" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="B30" s="124" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C30" s="124" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="D30" s="125" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="E30" s="125" t="s">
         <v>19</v>
@@ -6010,16 +6019,16 @@
         <v>249</v>
       </c>
       <c r="K30" s="124" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L30" s="144" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M30" s="144" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N30" s="144" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O30" s="124">
         <v>1</v>
@@ -6027,12 +6036,12 @@
       <c r="P30" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="Q30" s="128"/>
+      <c r="Q30" s="155"/>
       <c r="R30" s="134"/>
       <c r="S30" s="135"/>
-      <c r="T30" s="131"/>
+      <c r="T30" s="156"/>
       <c r="U30" s="132"/>
-      <c r="V30" s="133"/>
+      <c r="V30" s="157"/>
       <c r="W30" s="129"/>
       <c r="X30" s="129"/>
       <c r="Y30" s="132"/>
@@ -6043,16 +6052,16 @@
     </row>
     <row r="31" spans="1:27" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="123" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="B31" s="124" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C31" s="124" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="D31" s="125" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="E31" s="125" t="s">
         <v>19</v>
@@ -6073,16 +6082,16 @@
         <v>249</v>
       </c>
       <c r="K31" s="124" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L31" s="144" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M31" s="144" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N31" s="144" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O31" s="124">
         <v>1</v>
@@ -6090,12 +6099,12 @@
       <c r="P31" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="Q31" s="128"/>
+      <c r="Q31" s="155"/>
       <c r="R31" s="134"/>
       <c r="S31" s="136"/>
-      <c r="T31" s="137"/>
+      <c r="T31" s="158"/>
       <c r="U31" s="132"/>
-      <c r="V31" s="133"/>
+      <c r="V31" s="157"/>
       <c r="W31" s="129"/>
       <c r="X31" s="129"/>
       <c r="Y31" s="132"/>
@@ -6106,16 +6115,16 @@
     </row>
     <row r="32" spans="1:27" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="123" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="B32" s="124" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C32" s="124" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="D32" s="125" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="E32" s="125" t="s">
         <v>19</v>
@@ -6136,16 +6145,16 @@
         <v>249</v>
       </c>
       <c r="K32" s="124" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L32" s="144" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M32" s="144" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N32" s="144" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O32" s="124">
         <v>1</v>
@@ -6153,12 +6162,12 @@
       <c r="P32" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="Q32" s="128"/>
+      <c r="Q32" s="155"/>
       <c r="R32" s="134"/>
       <c r="S32" s="135"/>
-      <c r="T32" s="131"/>
+      <c r="T32" s="156"/>
       <c r="U32" s="132"/>
-      <c r="V32" s="133"/>
+      <c r="V32" s="157"/>
       <c r="W32" s="129"/>
       <c r="X32" s="129"/>
       <c r="Y32" s="132"/>
@@ -6169,16 +6178,16 @@
     </row>
     <row r="33" spans="1:27" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="123" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="B33" s="124" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C33" s="124" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="D33" s="125" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="E33" s="125" t="s">
         <v>19</v>
@@ -6199,16 +6208,16 @@
         <v>249</v>
       </c>
       <c r="K33" s="124" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L33" s="144" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M33" s="144" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N33" s="144" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O33" s="124">
         <v>1</v>
@@ -6216,12 +6225,12 @@
       <c r="P33" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="Q33" s="128"/>
+      <c r="Q33" s="155"/>
       <c r="R33" s="134"/>
       <c r="S33" s="135"/>
-      <c r="T33" s="131"/>
+      <c r="T33" s="156"/>
       <c r="U33" s="132"/>
-      <c r="V33" s="133"/>
+      <c r="V33" s="157"/>
       <c r="W33" s="129"/>
       <c r="X33" s="129"/>
       <c r="Y33" s="132"/>
@@ -6232,16 +6241,16 @@
     </row>
     <row r="34" spans="1:27" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="123" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="B34" s="124" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C34" s="124" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="D34" s="125" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="E34" s="125" t="s">
         <v>19</v>
@@ -6262,16 +6271,16 @@
         <v>249</v>
       </c>
       <c r="K34" s="124" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L34" s="144" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M34" s="144" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N34" s="144" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O34" s="124">
         <v>1</v>
@@ -6279,12 +6288,12 @@
       <c r="P34" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="Q34" s="138"/>
+      <c r="Q34" s="159"/>
       <c r="R34" s="139"/>
       <c r="S34" s="136"/>
-      <c r="T34" s="137"/>
+      <c r="T34" s="158"/>
       <c r="U34" s="140"/>
-      <c r="V34" s="133"/>
+      <c r="V34" s="157"/>
       <c r="W34" s="141"/>
       <c r="X34" s="141"/>
       <c r="Y34" s="142"/>
@@ -6295,16 +6304,16 @@
     </row>
     <row r="35" spans="1:27" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="123" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="B35" s="124" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C35" s="124" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="D35" s="125" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="E35" s="125" t="s">
         <v>19</v>
@@ -6325,16 +6334,16 @@
         <v>249</v>
       </c>
       <c r="K35" s="124" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L35" s="144" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M35" s="144" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N35" s="144" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O35" s="124">
         <v>1</v>
@@ -6342,12 +6351,12 @@
       <c r="P35" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="Q35" s="138"/>
+      <c r="Q35" s="159"/>
       <c r="R35" s="139"/>
       <c r="S35" s="135"/>
-      <c r="T35" s="131"/>
+      <c r="T35" s="156"/>
       <c r="U35" s="140"/>
-      <c r="V35" s="133"/>
+      <c r="V35" s="157"/>
       <c r="W35" s="141"/>
       <c r="X35" s="141"/>
       <c r="Y35" s="142"/>
@@ -6358,16 +6367,16 @@
     </row>
     <row r="36" spans="1:27" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="123" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="B36" s="124" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C36" s="124" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="D36" s="125" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="E36" s="125" t="s">
         <v>19</v>
@@ -6388,16 +6397,16 @@
         <v>249</v>
       </c>
       <c r="K36" s="124" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L36" s="144" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M36" s="144" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="N36" s="144" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O36" s="124">
         <v>1</v>
@@ -6405,12 +6414,12 @@
       <c r="P36" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="Q36" s="128"/>
+      <c r="Q36" s="155"/>
       <c r="R36" s="129"/>
       <c r="S36" s="143"/>
-      <c r="T36" s="137"/>
+      <c r="T36" s="158"/>
       <c r="U36" s="132"/>
-      <c r="V36" s="133"/>
+      <c r="V36" s="157"/>
       <c r="W36" s="129"/>
       <c r="X36" s="129"/>
       <c r="Y36" s="132"/>
@@ -6421,16 +6430,16 @@
     </row>
     <row r="37" spans="1:27" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="123" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="B37" s="124" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C37" s="124" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="D37" s="125" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="E37" s="125" t="s">
         <v>19</v>
@@ -6451,16 +6460,16 @@
         <v>249</v>
       </c>
       <c r="K37" s="124" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L37" s="144" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M37" s="144" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N37" s="144" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O37" s="124">
         <v>1</v>
@@ -6468,12 +6477,12 @@
       <c r="P37" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="Q37" s="128"/>
+      <c r="Q37" s="155"/>
       <c r="R37" s="134"/>
       <c r="S37" s="135"/>
-      <c r="T37" s="131"/>
+      <c r="T37" s="156"/>
       <c r="U37" s="132"/>
-      <c r="V37" s="133"/>
+      <c r="V37" s="157"/>
       <c r="W37" s="129"/>
       <c r="X37" s="129"/>
       <c r="Y37" s="132"/>
@@ -6484,16 +6493,16 @@
     </row>
     <row r="38" spans="1:27" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="123" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="B38" s="124" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C38" s="124" t="s">
-        <v>501</v>
+        <v>517</v>
       </c>
       <c r="D38" s="125" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="E38" s="125" t="s">
         <v>19</v>
@@ -6514,16 +6523,16 @@
         <v>249</v>
       </c>
       <c r="K38" s="124" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L38" s="144" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M38" s="144" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="N38" s="144" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O38" s="124">
         <v>1</v>
@@ -6531,12 +6540,12 @@
       <c r="P38" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="Q38" s="128"/>
+      <c r="Q38" s="155"/>
       <c r="R38" s="134"/>
       <c r="S38" s="135"/>
-      <c r="T38" s="131"/>
+      <c r="T38" s="156"/>
       <c r="U38" s="132"/>
-      <c r="V38" s="133"/>
+      <c r="V38" s="157"/>
       <c r="W38" s="129"/>
       <c r="X38" s="129"/>
       <c r="Y38" s="132"/>
@@ -6547,16 +6556,16 @@
     </row>
     <row r="39" spans="1:27" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="123" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="B39" s="124" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C39" s="124" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="D39" s="125" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="E39" s="125" t="s">
         <v>19</v>
@@ -6577,16 +6586,16 @@
         <v>249</v>
       </c>
       <c r="K39" s="124" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L39" s="144" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M39" s="144" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N39" s="144" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O39" s="124">
         <v>1</v>
@@ -6594,12 +6603,12 @@
       <c r="P39" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="Q39" s="128"/>
+      <c r="Q39" s="155"/>
       <c r="R39" s="134"/>
       <c r="S39" s="136"/>
-      <c r="T39" s="137"/>
+      <c r="T39" s="158"/>
       <c r="U39" s="132"/>
-      <c r="V39" s="133"/>
+      <c r="V39" s="157"/>
       <c r="W39" s="129"/>
       <c r="X39" s="129"/>
       <c r="Y39" s="132"/>
@@ -6610,16 +6619,16 @@
     </row>
     <row r="40" spans="1:27" s="10" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="123" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B40" s="124" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C40" s="124" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="D40" s="125" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="E40" s="125" t="s">
         <v>19</v>
@@ -6640,16 +6649,16 @@
         <v>249</v>
       </c>
       <c r="K40" s="124" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L40" s="144" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M40" s="144" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="N40" s="144" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O40" s="124">
         <v>1</v>
@@ -6657,12 +6666,12 @@
       <c r="P40" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="Q40" s="128"/>
+      <c r="Q40" s="155"/>
       <c r="R40" s="134"/>
       <c r="S40" s="135"/>
-      <c r="T40" s="131"/>
+      <c r="T40" s="156"/>
       <c r="U40" s="132"/>
-      <c r="V40" s="133"/>
+      <c r="V40" s="157"/>
       <c r="W40" s="129"/>
       <c r="X40" s="129"/>
       <c r="Y40" s="132"/>
@@ -6673,16 +6682,16 @@
     </row>
     <row r="41" spans="1:27" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="123" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="B41" s="124" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C41" s="124" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="D41" s="125" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="E41" s="125" t="s">
         <v>19</v>
@@ -6703,16 +6712,16 @@
         <v>249</v>
       </c>
       <c r="K41" s="124" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L41" s="144" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M41" s="144" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="N41" s="144" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O41" s="124">
         <v>1</v>
@@ -6720,12 +6729,12 @@
       <c r="P41" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="Q41" s="128"/>
+      <c r="Q41" s="155"/>
       <c r="R41" s="134"/>
       <c r="S41" s="135"/>
-      <c r="T41" s="131"/>
+      <c r="T41" s="156"/>
       <c r="U41" s="132"/>
-      <c r="V41" s="133"/>
+      <c r="V41" s="157"/>
       <c r="W41" s="129"/>
       <c r="X41" s="129"/>
       <c r="Y41" s="132"/>
@@ -6736,16 +6745,16 @@
     </row>
     <row r="42" spans="1:27" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="123" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B42" s="124" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C42" s="124" t="s">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="D42" s="125" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="E42" s="125" t="s">
         <v>19</v>
@@ -6766,16 +6775,16 @@
         <v>249</v>
       </c>
       <c r="K42" s="124" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L42" s="144" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M42" s="144" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="N42" s="144" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O42" s="124">
         <v>1</v>
@@ -6783,12 +6792,12 @@
       <c r="P42" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="Q42" s="138"/>
+      <c r="Q42" s="159"/>
       <c r="R42" s="139"/>
       <c r="S42" s="136"/>
-      <c r="T42" s="137"/>
+      <c r="T42" s="158"/>
       <c r="U42" s="140"/>
-      <c r="V42" s="133"/>
+      <c r="V42" s="157"/>
       <c r="W42" s="141"/>
       <c r="X42" s="141"/>
       <c r="Y42" s="142"/>
@@ -6799,16 +6808,16 @@
     </row>
     <row r="43" spans="1:27" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="123" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B43" s="124" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C43" s="124" t="s">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="D43" s="125" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="E43" s="125" t="s">
         <v>19</v>
@@ -6829,16 +6838,16 @@
         <v>249</v>
       </c>
       <c r="K43" s="124" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L43" s="144" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M43" s="144" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="N43" s="144" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O43" s="124">
         <v>1</v>
@@ -6846,12 +6855,12 @@
       <c r="P43" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="Q43" s="138"/>
+      <c r="Q43" s="159"/>
       <c r="R43" s="139"/>
       <c r="S43" s="135"/>
-      <c r="T43" s="131"/>
+      <c r="T43" s="156"/>
       <c r="U43" s="140"/>
-      <c r="V43" s="133"/>
+      <c r="V43" s="157"/>
       <c r="W43" s="141"/>
       <c r="X43" s="141"/>
       <c r="Y43" s="142"/>
@@ -6862,16 +6871,16 @@
     </row>
     <row r="44" spans="1:27" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="123" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B44" s="124" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C44" s="124" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="D44" s="125" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="E44" s="125" t="s">
         <v>19</v>
@@ -6892,16 +6901,16 @@
         <v>249</v>
       </c>
       <c r="K44" s="124" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L44" s="144" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M44" s="144" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N44" s="144" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O44" s="124">
         <v>1</v>
@@ -6909,12 +6918,12 @@
       <c r="P44" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="Q44" s="128"/>
+      <c r="Q44" s="155"/>
       <c r="R44" s="129"/>
       <c r="S44" s="143"/>
-      <c r="T44" s="137"/>
+      <c r="T44" s="158"/>
       <c r="U44" s="132"/>
-      <c r="V44" s="133"/>
+      <c r="V44" s="157"/>
       <c r="W44" s="129"/>
       <c r="X44" s="129"/>
       <c r="Y44" s="132"/>
@@ -6925,16 +6934,16 @@
     </row>
     <row r="45" spans="1:27" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="123" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B45" s="124" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C45" s="124" t="s">
-        <v>508</v>
+        <v>531</v>
       </c>
       <c r="D45" s="125" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="E45" s="125" t="s">
         <v>19</v>
@@ -6955,16 +6964,16 @@
         <v>249</v>
       </c>
       <c r="K45" s="124" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L45" s="144" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M45" s="144" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="N45" s="144" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O45" s="124">
         <v>1</v>
@@ -6972,12 +6981,12 @@
       <c r="P45" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="Q45" s="128"/>
+      <c r="Q45" s="155"/>
       <c r="R45" s="134"/>
       <c r="S45" s="135"/>
-      <c r="T45" s="131"/>
+      <c r="T45" s="156"/>
       <c r="U45" s="132"/>
-      <c r="V45" s="133"/>
+      <c r="V45" s="157"/>
       <c r="W45" s="129"/>
       <c r="X45" s="129"/>
       <c r="Y45" s="132"/>
@@ -6988,16 +6997,16 @@
     </row>
     <row r="46" spans="1:27" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="123" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B46" s="124" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C46" s="124" t="s">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="D46" s="125" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="E46" s="125" t="s">
         <v>19</v>
@@ -7018,16 +7027,16 @@
         <v>249</v>
       </c>
       <c r="K46" s="124" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L46" s="144" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M46" s="144" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N46" s="144" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O46" s="124">
         <v>1</v>
@@ -7035,12 +7044,12 @@
       <c r="P46" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="Q46" s="128"/>
+      <c r="Q46" s="155"/>
       <c r="R46" s="134"/>
       <c r="S46" s="135"/>
-      <c r="T46" s="131"/>
+      <c r="T46" s="156"/>
       <c r="U46" s="132"/>
-      <c r="V46" s="133"/>
+      <c r="V46" s="157"/>
       <c r="W46" s="129"/>
       <c r="X46" s="129"/>
       <c r="Y46" s="132"/>
@@ -7051,16 +7060,16 @@
     </row>
     <row r="47" spans="1:27" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="123" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B47" s="124" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C47" s="124" t="s">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="D47" s="125" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="E47" s="125" t="s">
         <v>19</v>
@@ -7081,16 +7090,16 @@
         <v>249</v>
       </c>
       <c r="K47" s="124" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L47" s="144" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M47" s="144" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="N47" s="144" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O47" s="124">
         <v>1</v>
@@ -7098,12 +7107,12 @@
       <c r="P47" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="Q47" s="128"/>
+      <c r="Q47" s="155"/>
       <c r="R47" s="134"/>
       <c r="S47" s="136"/>
-      <c r="T47" s="137"/>
+      <c r="T47" s="158"/>
       <c r="U47" s="132"/>
-      <c r="V47" s="133"/>
+      <c r="V47" s="157"/>
       <c r="W47" s="129"/>
       <c r="X47" s="129"/>
       <c r="Y47" s="132"/>
@@ -10390,8 +10399,7 @@
     <mergeCell ref="R15:S15"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations xWindow="64075" yWindow="65218" count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Use accession number from NCBI (e.g NC_000001)" sqref="C21:C149" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+  <dataValidations xWindow="64075" yWindow="65218" count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA20:AA149" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
@@ -10399,6 +10407,8 @@
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O21:O150" xr:uid="{9C144E69-B526-394F-8B8F-BA901C80BE85}">
       <formula1>0</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Use accession number from NCBI (NC_045512 recommended)" sqref="C48:C149" xr:uid="{F53D0209-BFFC-604E-B6D0-A03B0798D38B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Use accession number from NCBI (e.g NC_000001)" sqref="C21:C47" xr:uid="{22925AAE-5B3B-7749-9E08-B1970E4486BF}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -10416,25 +10426,25 @@
           <x14:formula1>
             <xm:f>'Drop down list'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G20:H20 Q21:Q149</xm:sqref>
+          <xm:sqref>G20:H20 Q48:Q149</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000009000000}">
           <x14:formula1>
             <xm:f>'Drop down list'!$P$2:$P$97</xm:f>
           </x14:formula1>
-          <xm:sqref>S21:T149</xm:sqref>
+          <xm:sqref>S48:T149</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000008000000}">
           <x14:formula1>
             <xm:f>'Drop down list'!$O$2:$O$3</xm:f>
           </x14:formula1>
-          <xm:sqref>P21:P149</xm:sqref>
+          <xm:sqref>P48:P149</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="If sample is in buffer with EDTA, contact Clinical genomics before submission." xr:uid="{4D767856-33F8-EA44-B848-D2D194C17FA1}">
           <x14:formula1>
             <xm:f>'Drop down list'!$I$2:$I$4</xm:f>
           </x14:formula1>
-          <xm:sqref>I21:I149</xm:sqref>
+          <xm:sqref>I48:I149</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D95C0C73-9EE0-9742-95B6-0FC26BF229A6}">
           <x14:formula1>
@@ -10452,43 +10462,43 @@
           <x14:formula1>
             <xm:f>'Drop down list'!$E$2</xm:f>
           </x14:formula1>
-          <xm:sqref>F21:F150</xm:sqref>
+          <xm:sqref>F48:F150</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{1163CAFC-53DD-114F-8957-E06883189EA7}">
           <x14:formula1>
             <xm:f>'Drop down list'!$F$2:$F$202</xm:f>
           </x14:formula1>
-          <xm:sqref>G21:G150</xm:sqref>
+          <xm:sqref>G48:G150</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000A000000}">
           <x14:formula1>
             <xm:f>'Drop down list'!$J$2:$J$6</xm:f>
           </x14:formula1>
-          <xm:sqref>J21:J149</xm:sqref>
+          <xm:sqref>J48:J149</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{768B2576-FEC6-3F42-B2B7-63AEFC239F80}">
           <x14:formula1>
             <xm:f>'Drop down list'!$G$2:$G$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H21:H150</xm:sqref>
+          <xm:sqref>H48:H150</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9E0AD2D1-E80D-0743-93A5-EEF9100A30FA}">
           <x14:formula1>
             <xm:f>'Drop down list'!$L$2:$L$22</xm:f>
           </x14:formula1>
-          <xm:sqref>L21:L149</xm:sqref>
+          <xm:sqref>L48:L149</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6A042DCF-749F-0B47-8753-0E134E1C7F1C}">
           <x14:formula1>
             <xm:f>'Drop down list'!$M$2:$M$28</xm:f>
           </x14:formula1>
-          <xm:sqref>M21:M149</xm:sqref>
+          <xm:sqref>M48:M149</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A72B8F25-3AF7-B346-A369-C7EFB1AE45C8}">
           <x14:formula1>
             <xm:f>'Drop down list'!$N$2:$N$8</xm:f>
           </x14:formula1>
-          <xm:sqref>N21:N150</xm:sqref>
+          <xm:sqref>N48:N150</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="If &quot;Other&quot;, specify in &quot;Other species&quot; field." xr:uid="{AD11C09A-15C7-A946-8B4D-15527535D1AB}">
           <x14:formula1>
@@ -10500,7 +10510,7 @@
           <x14:formula1>
             <xm:f>'Drop down list'!$K$2:$K$4</xm:f>
           </x14:formula1>
-          <xm:sqref>K21:K150</xm:sqref>
+          <xm:sqref>K48:K150</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -10515,8 +10525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P202"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:N8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10560,16 +10570,16 @@
         <v>250</v>
       </c>
       <c r="K1" s="121" t="s">
+        <v>401</v>
+      </c>
+      <c r="L1" s="121" t="s">
         <v>402</v>
       </c>
-      <c r="L1" s="121" t="s">
+      <c r="M1" s="121" t="s">
         <v>403</v>
       </c>
-      <c r="M1" s="121" t="s">
+      <c r="N1" s="121" t="s">
         <v>404</v>
-      </c>
-      <c r="N1" s="121" t="s">
-        <v>405</v>
       </c>
       <c r="O1" s="119" t="s">
         <v>93</v>
@@ -10580,11 +10590,11 @@
     </row>
     <row r="2" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="146" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="B2" s="145"/>
       <c r="C2" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -10605,19 +10615,19 @@
         <v>278</v>
       </c>
       <c r="J2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="K2" s="146" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="L2" s="144" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M2" s="144" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N2" s="144" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O2" t="s">
         <v>9</v>
@@ -10631,7 +10641,7 @@
         <v>274</v>
       </c>
       <c r="C3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E3" s="113"/>
       <c r="F3" t="s">
@@ -10650,16 +10660,16 @@
         <v>247</v>
       </c>
       <c r="K3" s="146" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="L3" s="144" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M3" s="144" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="N3" s="144" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O3" t="s">
         <v>95</v>
@@ -10682,17 +10692,17 @@
       <c r="J4" t="s">
         <v>248</v>
       </c>
-      <c r="K4" s="149" t="s">
+      <c r="K4" s="148" t="s">
         <v>333</v>
       </c>
       <c r="L4" s="144" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M4" s="144" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N4" s="144" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="P4" t="s">
         <v>29</v>
@@ -10707,13 +10717,13 @@
         <v>249</v>
       </c>
       <c r="L5" s="144" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M5" s="144" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N5" s="144" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P5" t="s">
         <v>30</v>
@@ -10728,13 +10738,13 @@
         <v>333</v>
       </c>
       <c r="L6" s="144" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M6" s="144" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N6" s="144" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="P6" t="s">
         <v>31</v>
@@ -10746,13 +10756,13 @@
         <v>40</v>
       </c>
       <c r="L7" s="144" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M7" s="144" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N7" s="144" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P7" t="s">
         <v>32</v>
@@ -10766,13 +10776,13 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="L8" s="144" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M8" s="144" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N8" s="144" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="P8" t="s">
         <v>33</v>
@@ -10783,10 +10793,10 @@
         <v>42</v>
       </c>
       <c r="L9" s="144" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M9" s="144" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P9" t="s">
         <v>34</v>
@@ -10797,10 +10807,10 @@
         <v>43</v>
       </c>
       <c r="L10" s="144" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M10" s="144" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P10" t="s">
         <v>97</v>
@@ -10813,10 +10823,10 @@
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
       <c r="L11" s="144" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="M11" s="144" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P11" t="s">
         <v>98</v>
@@ -10829,10 +10839,10 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="L12" s="144" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M12" s="144" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="P12" t="s">
         <v>99</v>
@@ -10844,10 +10854,10 @@
       </c>
       <c r="H13" s="13"/>
       <c r="L13" s="144" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M13" s="144" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="P13" t="s">
         <v>100</v>
@@ -10860,10 +10870,10 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="L14" s="144" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M14" s="144" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P14" t="s">
         <v>101</v>
@@ -10876,10 +10886,10 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="L15" s="144" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M15" s="144" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P15" t="s">
         <v>102</v>
@@ -10892,10 +10902,10 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="L16" s="144" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M16" s="144" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P16" t="s">
         <v>103</v>
@@ -10908,10 +10918,10 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="L17" s="144" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M17" s="144" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P17" t="s">
         <v>104</v>
@@ -10924,10 +10934,10 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="L18" s="144" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M18" s="144" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P18" t="s">
         <v>105</v>
@@ -10938,10 +10948,10 @@
         <v>52</v>
       </c>
       <c r="L19" s="144" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M19" s="144" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="P19" t="s">
         <v>106</v>
@@ -10952,10 +10962,10 @@
         <v>53</v>
       </c>
       <c r="L20" s="144" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M20" s="144" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P20" t="s">
         <v>107</v>
@@ -10966,10 +10976,10 @@
         <v>54</v>
       </c>
       <c r="L21" s="144" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M21" s="144" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="P21" t="s">
         <v>108</v>
@@ -10980,10 +10990,10 @@
         <v>55</v>
       </c>
       <c r="L22" s="144" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M22" s="144" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="P22" t="s">
         <v>109</v>
@@ -10994,7 +11004,7 @@
         <v>56</v>
       </c>
       <c r="M23" s="144" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="P23" t="s">
         <v>110</v>
@@ -11005,7 +11015,7 @@
         <v>57</v>
       </c>
       <c r="M24" s="144" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="P24" t="s">
         <v>111</v>
@@ -11016,7 +11026,7 @@
         <v>58</v>
       </c>
       <c r="M25" s="144" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P25" t="s">
         <v>112</v>
@@ -11027,7 +11037,7 @@
         <v>59</v>
       </c>
       <c r="M26" s="144" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P26" t="s">
         <v>113</v>
@@ -11038,7 +11048,7 @@
         <v>60</v>
       </c>
       <c r="M27" s="144" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P27" t="s">
         <v>114</v>
@@ -11049,7 +11059,7 @@
         <v>61</v>
       </c>
       <c r="M28" s="144" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="P28" t="s">
         <v>115</v>
